--- a/biology/Botanique/Faux_(outil)/Faux_(outil).xlsx
+++ b/biology/Botanique/Faux_(outil)/Faux_(outil).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La faux (ou anciennement faulx) est un outil manuel agricole pour faucher l'herbe lors des fenaisons et les céréales lors des moissons. La faux est formée d'une longue lame effilée (60 à 90 cm) et arquée, fixée perpendiculairement sur un manche en bois ou en métal, relativement long (140 à 200 cm) muni de deux poignées, l'une à mi-hauteur et l'autre à l'extrémité opposée à la lame. La lame est maintenue au manche grâce à une pièce métallique appelée anneau de serrage. Il est nécessaire de séparer la lame du manche pour battre le tranchant de la lame. Cet outil peut servir également à débroussailler les bords d'un pré ou d'un champ des plantes sauvages adventices telles que la ronce, la fougère, l'ortie et le chardon.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La faux telle que nous la connaissons actuellement est apparue dans la Slovénie actuelle entre le Ier siècle avant et le Ier siècle après J.-C.(Zeitlinger J., Déchelette  J.). Cela a eu pour but de développer la production du foin et donc de l’élevage. La faux en effet c’est le foin, (François Sigaut, EHESS), c’est-à-dire la forme principale de réserve fourragère grâce à laquelle l’intégration de l’agriculture et de l’élevage a pu être poussée bien plus loin en Europe que partout ailleurs. Son utilisation pour les moissons est très tardive.
 Les faux de formes diverses se sont très vite répandues dans l’espace romain et en Gaule dès le début de la période gallo-romaine. (Marbach A.)
@@ -547,16 +561,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">En agriculture
-Le fauchage requiert un apprentissage spécifique. La description ci-dessous concerne un faucheur droitier. Inverser tout pour un gaucher.
+          <t>En agriculture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fauchage requiert un apprentissage spécifique. La description ci-dessous concerne un faucheur droitier. Inverser tout pour un gaucher.
 Le faucheur reste droit pendant la fauche. Il fait face à la coulée qu'il va faucher. La lame repose au sol, la pointe à la droite du faucheur et donc le manche un peu en retrait derrière lui.
 Il effectue un mouvement latéral des deux bras pour amener l'herbe fauchée à gauche de son passage. Il repousse la faux au point de départ de la nouvelle coupe, la lame s'appuyant toujours sur le sol et fait un petit pas de la largeur d'herbe fauchée.
 La largeur d'herbe fauchée est la même pendant tout le mouvement. Elle ne dépasse pas 10 cm et dépend du contexte (dureté de l'herbe, sa hauteur, présence de rosée). Pendant la fauche la lame repose toujours au sol pour éviter la fatigue.
 Progressivement à gauche du faucheur se forme un tas rectiligne parallèle à l'avancée du faucheur, c'est l'andain.
 			Mouvement à mi-course.
 			Dépôt des céréales à gauche du faucheur.
-Au combat
-La faux a été utilisée comme arme au XVIe siècle, et son usage au combat a fait notamment l'objet d'un chapitre du traité De arte athletica publié en 1542 par Paulus Hector Mair. La faux de guerre est un dérivé de la faux agricole.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Au combat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La faux a été utilisée comme arme au XVIe siècle, et son usage au combat a fait notamment l'objet d'un chapitre du traité De arte athletica publié en 1542 par Paulus Hector Mair. La faux de guerre est un dérivé de la faux agricole.
 			Combat à la faux agricole.
 			Combat à la faux agricole.
 			Faux militaire avec un système de bascule de la lame, XVIIIe siècle par Pierre Surirey de Saint-Remy.
@@ -565,43 +619,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Entretien de la faux</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aiguiser
-Le faucheur doit fréquemment aiguiser sa lame (toutes les quinze ou trente minutes suivant la résistance des végétaux coupés et la qualité de la lame), grâce à une pierre à aiguiser humide. Cette opération répare les plus fines atteintes au tranchant de la lame et, comme tout aiguisage, enlève une petite partie de métal (ébavurage).
-			Aiguisage.
-			Battage sur billot.
-La « battre »
-De temps en temps (environ douze heures de fauche) le faucheur doit « battre » sa faux. Pour cela il sépare la lame du manche. Ensuite, avec un marteau sans angle marqué, il tapote le tranchant de la lame posée sur une enclumette. Le tranchant de la lame est placé au milieu de la tête de l'enclumette. Le faucheur évite de taper trop souvent au même endroit sinon le tranchant n'est plus rectiligne, de plus s'il devient trop fin il peut se fendre. Bien qu'ennuyeux, ces défauts disparaissent après quelques aiguisages.
-Cette opération est en fait un forgeage à froid destiné à affiner le tranchant, réparer les micro-fissures, combler les trous laissés par les éclats de métal partis, ainsi qu'à orienter les grains d'acier dans le meilleur sens pour la coupe. Cette opération modèle le métal sans en enlever. Le battage est fini quand le tranchant de la lame plie sous la pression de l'ongle. Il est toujours suivi d'un nouvel aiguisage à la pierre.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -623,13 +640,95 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Entretien de la faux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'aiguiser</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le faucheur doit fréquemment aiguiser sa lame (toutes les quinze ou trente minutes suivant la résistance des végétaux coupés et la qualité de la lame), grâce à une pierre à aiguiser humide. Cette opération répare les plus fines atteintes au tranchant de la lame et, comme tout aiguisage, enlève une petite partie de métal (ébavurage).
+			Aiguisage.
+			Battage sur billot.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Entretien de la faux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La « battre »</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De temps en temps (environ douze heures de fauche) le faucheur doit « battre » sa faux. Pour cela il sépare la lame du manche. Ensuite, avec un marteau sans angle marqué, il tapote le tranchant de la lame posée sur une enclumette. Le tranchant de la lame est placé au milieu de la tête de l'enclumette. Le faucheur évite de taper trop souvent au même endroit sinon le tranchant n'est plus rectiligne, de plus s'il devient trop fin il peut se fendre. Bien qu'ennuyeux, ces défauts disparaissent après quelques aiguisages.
+Cette opération est en fait un forgeage à froid destiné à affiner le tranchant, réparer les micro-fissures, combler les trous laissés par les éclats de métal partis, ainsi qu'à orienter les grains d'acier dans le meilleur sens pour la coupe. Cette opération modèle le métal sans en enlever. Le battage est fini quand le tranchant de la lame plie sous la pression de l'ongle. Il est toujours suivi d'un nouvel aiguisage à la pierre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Outils d'entretien</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'enclumette de faucheur
-Une enclumette est une petite enclume portative[1]. Le faucheur pose sa faux sur l'enclumette pour la battre. Il en existe à tête cylindrique ou sphérique.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>L'enclumette de faucheur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une enclumette est une petite enclume portative. Le faucheur pose sa faux sur l'enclumette pour la battre. Il en existe à tête cylindrique ou sphérique.
 L'enclumette peut-être :
 dans un billot ; le batteur s'assoit sur un tabouret.
 à l'extrémité d'un banc.
@@ -640,78 +739,152 @@
 			Lime, marteau et enclumette.
 			Banc de battage.
 			Étui à pierre à faux.
-La pierre
-La pierre est une pierre à eau. Elle est soit une pierre naturelle (des tailleurs en produisent encore dans les Pyrénées), soit une pierre artificielle.
-Le coffin ou coffi
-La pierre est rangée dans un étui à pierre à faux, appelé coffin en français (coyau en sarthois, coupet en « pyrénéen »), qui est traditionnellement porté à la ceinture. Le coffin est fait en zinc, dans une corne ou en bois. La petite quantité d'eau au fond mouille la pierre à chaque mouvement du faucheur.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Outils d'entretien</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>La pierre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pierre est une pierre à eau. Elle est soit une pierre naturelle (des tailleurs en produisent encore dans les Pyrénées), soit une pierre artificielle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Outils d'entretien</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le coffin ou coffi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pierre est rangée dans un étui à pierre à faux, appelé coffin en français (coyau en sarthois, coupet en « pyrénéen »), qui est traditionnellement porté à la ceinture. Le coffin est fait en zinc, dans une corne ou en bois. La petite quantité d'eau au fond mouille la pierre à chaque mouvement du faucheur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Outils apparentés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">le javelier ou javeleur, javeleuse, faux à doigts, faux à rastell, faux à râteau, faux à étripe, faux à râteau, faux armée, faux composée ; l'outil permet de faire en même temps la fauche et la mise en javelles ou en andains mais demande une grande endurance[2] ;
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">le javelier ou javeleur, javeleuse, faux à doigts, faux à rastell, faux à râteau, faux à étripe, faux à râteau, faux armée, faux composée ; l'outil permet de faire en même temps la fauche et la mise en javelles ou en andains mais demande une grande endurance ;
 la faucille sert à débroussailler les endroits difficilement accessibles aux tondeuses ;
 le faucard (ou faucardeuse) est une faux à long manche, manœuvrée à la main ou adaptée à un bateau muni d’un moteur, et qui sert à faucher les herbes des rivières et des marais ;
 le croissant, goui ou gouillard est une faucille à long manche qui sert à élaguer de petites branches hautes ou à débroussailler des talus ;
-la serpe ou volant, à lame plus épaisse, sert couper du bois, tailler les arbres, élaguer des branches…[2]
+la serpe ou volant, à lame plus épaisse, sert couper du bois, tailler les arbres, élaguer des branches…
 la machette sert couper des repousses, des ronces, se frayer un chemin dans la végétation…
-La sape, dail, daille ou fauchon qui est une faux à lame courte et plus épaisse qui sert à faucher les fougères et arbustes de sous-bois (genets ; brande, ...) mais aussi les céréales[2] ; elle permet de couper au ras du sol en passant là où une faux serait encombrante ; cependant en poitevin et le plus souvent en occitan, « dail » désigne toutes les sortes de faux, de même en catalan « dalla ».
+La sape, dail, daille ou fauchon qui est une faux à lame courte et plus épaisse qui sert à faucher les fougères et arbustes de sous-bois (genets ; brande, ...) mais aussi les céréales ; elle permet de couper au ras du sol en passant là où une faux serait encombrante ; cependant en poitevin et le plus souvent en occitan, « dail » désigne toutes les sortes de faux, de même en catalan « dalla ».
 			Le musée de la faux à Scharnstein, Autriche.
 			Étapes de fabrication d’une faux.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Faux à moteur</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La faux ou faucheuse à moteur deux temps utilise le plus souvent un carburant composé d’huile et d’essence sans plomb. Elle est utile toute l'année pour faucher les herbes et la végétation du jardin, se faufilant là où la tondeuse n’a pas accès. La débroussailleuse est un outil qui se situe entre la faux portée et le coupe-herbe tant utilisé pour l’entretien des bordures.
 			Coupe-bordures thermique et électrique.
@@ -721,31 +894,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Dans l'art</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jean-Pierre Norblin de La Gourdaine, Paysan à l’ouvrage, 1817.
@@ -753,31 +928,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Symbolique et iconographie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">La faux est l'outil symboliquement associé à la Mort, aussi appelée la Grande Faucheuse.
 Elle est l'attribut du personnage de l'Ankou.
@@ -785,33 +962,35 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faux_(outil)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le calendrier républicain français, le 10e jour du mois de Prairial, est officiellement dénommé jour de la Faux[3].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le calendrier républicain français, le 10e jour du mois de Prairial, est officiellement dénommé jour de la Faux.
 </t>
         </is>
       </c>
